--- a/DataAnalysis/DataAnalysis/Farming/AgriculturalT.xlsx
+++ b/DataAnalysis/DataAnalysis/Farming/AgriculturalT.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program_Project\VisualStudioProject\DataAnalysis\DataAnalysis\Farming\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -309,8 +304,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,25 +364,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -425,9 +412,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,10 +446,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,10 +480,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -670,18 +655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -793,7 +774,7 @@
         <v>19.5</v>
       </c>
       <c r="K2">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="L2">
         <v>2.37</v>
@@ -820,7 +801,7 @@
         <v>11.74</v>
       </c>
       <c r="T2">
-        <v>18.940000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="U2">
         <v>1.88</v>
@@ -844,7 +825,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -855,7 +836,7 @@
         <v>24.9</v>
       </c>
       <c r="D3">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="E3">
         <v>20.5</v>
@@ -903,7 +884,7 @@
         <v>10.94</v>
       </c>
       <c r="T3">
-        <v>17.149999999999999</v>
+        <v>17.15</v>
       </c>
       <c r="U3">
         <v>3.03</v>
@@ -927,7 +908,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -935,7 +916,7 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="D4">
         <v>28</v>
@@ -1010,7 +991,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1021,13 +1002,13 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="E5">
         <v>15</v>
       </c>
       <c r="F5">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="G5" t="s">
         <v>88</v>
@@ -1060,7 +1041,7 @@
         <v>2.52</v>
       </c>
       <c r="Q5">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="R5">
         <v>24.36</v>
@@ -1093,7 +1074,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1140,7 +1121,7 @@
         <v>14.75</v>
       </c>
       <c r="P6">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="Q6">
         <v>2.91</v>
@@ -1167,7 +1148,7 @@
         <v>12.18</v>
       </c>
       <c r="Y6">
-        <v>17.829999999999998</v>
+        <v>17.83</v>
       </c>
       <c r="Z6">
         <v>3.32</v>
@@ -1176,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1190,7 +1171,7 @@
         <v>18.3</v>
       </c>
       <c r="E7">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="F7">
         <v>15.8</v>
@@ -1229,7 +1210,7 @@
         <v>3.9</v>
       </c>
       <c r="R7">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="S7">
         <v>10.68</v>
@@ -1250,7 +1231,7 @@
         <v>12.12</v>
       </c>
       <c r="Y7">
-        <v>16.579999999999998</v>
+        <v>16.58</v>
       </c>
       <c r="Z7">
         <v>2.02</v>
@@ -1259,7 +1240,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1291,10 +1272,10 @@
         <v>18.28</v>
       </c>
       <c r="K8">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="L8">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="M8">
         <v>23.05</v>
@@ -1318,7 +1299,7 @@
         <v>13.04</v>
       </c>
       <c r="T8">
-        <v>18.190000000000001</v>
+        <v>18.19</v>
       </c>
       <c r="U8">
         <v>1.97</v>
@@ -1333,7 +1314,7 @@
         <v>13.59</v>
       </c>
       <c r="Y8">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="Z8">
         <v>2.02</v>
@@ -1342,7 +1323,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1356,10 +1337,10 @@
         <v>30.2</v>
       </c>
       <c r="E9">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="F9">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="G9" t="s">
         <v>88</v>
@@ -1371,10 +1352,10 @@
         <v>12.36</v>
       </c>
       <c r="J9">
-        <v>18.420000000000002</v>
+        <v>18.42</v>
       </c>
       <c r="K9">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="L9">
         <v>2.11</v>
@@ -1386,7 +1367,7 @@
         <v>11.18</v>
       </c>
       <c r="O9">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="P9">
         <v>2.09</v>
@@ -1401,7 +1382,7 @@
         <v>11.06</v>
       </c>
       <c r="T9">
-        <v>17.510000000000002</v>
+        <v>17.51</v>
       </c>
       <c r="U9">
         <v>2.02</v>
@@ -1425,7 +1406,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1433,7 +1414,7 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="D10">
         <v>28.5</v>
@@ -1454,7 +1435,7 @@
         <v>13.56</v>
       </c>
       <c r="J10">
-        <v>17.149999999999999</v>
+        <v>17.15</v>
       </c>
       <c r="K10">
         <v>1.17</v>
@@ -1484,7 +1465,7 @@
         <v>13.46</v>
       </c>
       <c r="T10">
-        <v>17.510000000000002</v>
+        <v>17.51</v>
       </c>
       <c r="U10">
         <v>0.75</v>
@@ -1508,7 +1489,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1591,7 +1572,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1638,7 +1619,7 @@
         <v>17.55</v>
       </c>
       <c r="P12">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="Q12">
         <v>2.14</v>
@@ -1659,7 +1640,7 @@
         <v>3.27</v>
       </c>
       <c r="W12">
-        <v>19.010000000000002</v>
+        <v>19.01</v>
       </c>
       <c r="X12">
         <v>9.15</v>
@@ -1674,7 +1655,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1709,7 +1690,7 @@
         <v>2.75</v>
       </c>
       <c r="L13">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="M13">
         <v>23.67</v>
@@ -1724,7 +1705,7 @@
         <v>3.08</v>
       </c>
       <c r="Q13">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="R13">
         <v>23.57</v>
@@ -1748,16 +1729,16 @@
         <v>11.22</v>
       </c>
       <c r="Y13">
-        <v>18.649999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="Z13">
         <v>2.79</v>
       </c>
       <c r="AA13">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1783,7 +1764,7 @@
         <v>17.73</v>
       </c>
       <c r="I14">
-        <v>8.4600000000000009</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="J14">
         <v>12.99</v>
@@ -1831,16 +1812,16 @@
         <v>14.59</v>
       </c>
       <c r="Y14">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="Z14">
         <v>2.57</v>
       </c>
       <c r="AA14">
-        <v>8.86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1854,7 +1835,7 @@
         <v>9.1</v>
       </c>
       <c r="E15">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="F15">
         <v>23.9</v>
@@ -1908,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>17.850000000000001</v>
+        <v>17.85</v>
       </c>
       <c r="X15">
         <v>11.98</v>
@@ -1923,7 +1904,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1934,7 +1915,7 @@
         <v>15.9</v>
       </c>
       <c r="D16">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E16">
         <v>18.2</v>
@@ -1964,7 +1945,7 @@
         <v>18.78</v>
       </c>
       <c r="N16">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="O16">
         <v>13.86</v>
@@ -1976,7 +1957,7 @@
         <v>3.06</v>
       </c>
       <c r="R16">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="S16">
         <v>7.43</v>
@@ -1991,10 +1972,10 @@
         <v>2.57</v>
       </c>
       <c r="W16">
-        <v>20.149999999999999</v>
+        <v>20.15</v>
       </c>
       <c r="X16">
-        <v>9.1199999999999992</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="Y16">
         <v>14.94</v>
@@ -2006,7 +1987,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2023,7 +2004,7 @@
         <v>16.8</v>
       </c>
       <c r="F17">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="G17" t="s">
         <v>88</v>
@@ -2065,7 +2046,7 @@
         <v>10.51</v>
       </c>
       <c r="T17">
-        <v>16.239999999999998</v>
+        <v>16.24</v>
       </c>
       <c r="U17">
         <v>3.96</v>
@@ -2080,7 +2061,7 @@
         <v>11.8</v>
       </c>
       <c r="Y17">
-        <v>17.559999999999999</v>
+        <v>17.56</v>
       </c>
       <c r="Z17">
         <v>3.54</v>
@@ -2089,7 +2070,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2130,7 +2111,7 @@
         <v>19.89</v>
       </c>
       <c r="N18">
-        <v>9.86</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="O18">
         <v>15.02</v>
@@ -2139,13 +2120,13 @@
         <v>3.54</v>
       </c>
       <c r="Q18">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="R18">
         <v>19.63</v>
       </c>
       <c r="S18">
-        <v>9.6300000000000008</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="T18">
         <v>14.82</v>
@@ -2172,7 +2153,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2180,7 +2161,7 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="D19">
         <v>23.9</v>
@@ -2198,7 +2179,7 @@
         <v>21.53</v>
       </c>
       <c r="I19">
-        <v>9.5500000000000007</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J19">
         <v>15.56</v>
@@ -2243,10 +2224,10 @@
         <v>23.02</v>
       </c>
       <c r="X19">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="Y19">
-        <v>16.809999999999999</v>
+        <v>16.81</v>
       </c>
       <c r="Z19">
         <v>2.72</v>
@@ -2255,7 +2236,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2338,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2364,7 +2345,7 @@
         <v>28.9</v>
       </c>
       <c r="I21">
-        <v>16.190000000000001</v>
+        <v>16.19</v>
       </c>
       <c r="J21">
         <v>22.77</v>
@@ -2418,10 +2399,10 @@
         <v>5.25</v>
       </c>
       <c r="AA21">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2465,7 +2446,7 @@
         <v>10.81</v>
       </c>
       <c r="O22">
-        <v>17.190000000000001</v>
+        <v>17.19</v>
       </c>
       <c r="P22">
         <v>1.84</v>
@@ -2480,7 +2461,7 @@
         <v>10.93</v>
       </c>
       <c r="T22">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="U22">
         <v>1.95</v>
@@ -2504,7 +2485,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2587,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2601,7 +2582,7 @@
         <v>23.1</v>
       </c>
       <c r="E24">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="F24">
         <v>12.8</v>
@@ -2664,13 +2645,13 @@
         <v>22.01</v>
       </c>
       <c r="Z24">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2684,7 +2665,7 @@
         <v>21.4</v>
       </c>
       <c r="E25">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="F25">
         <v>18.2</v>
@@ -2753,7 +2734,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2767,7 +2748,7 @@
         <v>21.7</v>
       </c>
       <c r="E26">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="F26">
         <v>16.5</v>
@@ -2779,7 +2760,7 @@
         <v>25.72</v>
       </c>
       <c r="I26">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="J26">
         <v>23.12</v>
@@ -2836,7 +2817,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2865,7 +2846,7 @@
         <v>14.44</v>
       </c>
       <c r="J27">
-        <v>20.149999999999999</v>
+        <v>20.15</v>
       </c>
       <c r="K27">
         <v>3.95</v>
@@ -2883,7 +2864,7 @@
         <v>20.86</v>
       </c>
       <c r="P27">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="Q27">
         <v>0.06</v>
@@ -2895,10 +2876,10 @@
         <v>14.09</v>
       </c>
       <c r="T27">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="U27">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="V27">
         <v>0.36</v>
@@ -2919,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2948,7 +2929,7 @@
         <v>9.69</v>
       </c>
       <c r="J28">
-        <v>18.739999999999998</v>
+        <v>18.74</v>
       </c>
       <c r="K28">
         <v>3.75</v>
@@ -2963,7 +2944,7 @@
         <v>8.58</v>
       </c>
       <c r="O28">
-        <v>16.350000000000001</v>
+        <v>16.35</v>
       </c>
       <c r="P28">
         <v>3.74</v>
@@ -3002,7 +2983,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3013,7 +2994,7 @@
         <v>23.2</v>
       </c>
       <c r="D29">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="E29">
         <v>22.4</v>
@@ -3049,7 +3030,7 @@
         <v>15.39</v>
       </c>
       <c r="P29">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="Q29">
         <v>2.73</v>
@@ -3058,7 +3039,7 @@
         <v>20.12</v>
       </c>
       <c r="S29">
-        <v>9.5500000000000007</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="T29">
         <v>15.03</v>
@@ -3067,7 +3048,7 @@
         <v>2.66</v>
       </c>
       <c r="V29">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="W29">
         <v>21.76</v>
@@ -3085,7 +3066,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3093,7 +3074,7 @@
         <v>54</v>
       </c>
       <c r="C30">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D30">
         <v>27.1</v>
@@ -3126,7 +3107,7 @@
         <v>21.97</v>
       </c>
       <c r="N30">
-        <v>9.6199999999999992</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="O30">
         <v>15.97</v>
@@ -3168,7 +3149,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3179,7 +3160,7 @@
         <v>13.1</v>
       </c>
       <c r="D31">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="E31">
         <v>20.8</v>
@@ -3242,7 +3223,7 @@
         <v>10.62</v>
       </c>
       <c r="Y31">
-        <v>17.149999999999999</v>
+        <v>17.15</v>
       </c>
       <c r="Z31">
         <v>4.03</v>
@@ -3251,7 +3232,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3262,13 +3243,13 @@
         <v>15</v>
       </c>
       <c r="D32">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="E32">
         <v>24.1</v>
       </c>
       <c r="F32">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="G32" t="s">
         <v>88</v>
@@ -3322,7 +3303,7 @@
         <v>21</v>
       </c>
       <c r="X32">
-        <v>9.3800000000000008</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="Y32">
         <v>15.11</v>
@@ -3334,7 +3315,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3351,7 +3332,7 @@
         <v>12.6</v>
       </c>
       <c r="F33">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="G33" t="s">
         <v>88</v>
@@ -3363,7 +3344,7 @@
         <v>11.72</v>
       </c>
       <c r="J33">
-        <v>17.809999999999999</v>
+        <v>17.81</v>
       </c>
       <c r="K33">
         <v>2.78</v>
@@ -3390,7 +3371,7 @@
         <v>21.3</v>
       </c>
       <c r="S33">
-        <v>9.9499999999999993</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="T33">
         <v>15.67</v>
@@ -3408,7 +3389,7 @@
         <v>10.8</v>
       </c>
       <c r="Y33">
-        <v>17.170000000000002</v>
+        <v>17.17</v>
       </c>
       <c r="Z33">
         <v>3.38</v>
@@ -3417,7 +3398,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3431,7 +3412,7 @@
         <v>12.1</v>
       </c>
       <c r="E34">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="F34">
         <v>15.4</v>
@@ -3443,13 +3424,13 @@
         <v>20.72</v>
       </c>
       <c r="I34">
-        <v>10.050000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="J34">
         <v>15.78</v>
       </c>
       <c r="K34">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="L34">
         <v>2.39</v>
@@ -3458,19 +3439,19 @@
         <v>19.86</v>
       </c>
       <c r="N34">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="O34">
         <v>15.39</v>
       </c>
       <c r="P34">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="Q34">
         <v>2.21</v>
       </c>
       <c r="R34">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="S34">
         <v>9</v>
@@ -3491,7 +3472,7 @@
         <v>2.58</v>
       </c>
       <c r="Y34">
-        <v>9.36</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="Z34">
         <v>2.79</v>
@@ -3500,7 +3481,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3529,7 +3510,7 @@
         <v>10.01</v>
       </c>
       <c r="J35">
-        <v>16.059999999999999</v>
+        <v>16.06</v>
       </c>
       <c r="K35">
         <v>1.65</v>
@@ -3571,7 +3552,7 @@
         <v>19.73</v>
       </c>
       <c r="X35">
-        <v>9.4499999999999993</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="Y35">
         <v>14.95</v>
@@ -3583,7 +3564,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3591,10 +3572,10 @@
         <v>60</v>
       </c>
       <c r="C36">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D36">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="E36">
         <v>13.7</v>
@@ -3612,7 +3593,7 @@
         <v>11.13</v>
       </c>
       <c r="J36">
-        <v>17.329999999999998</v>
+        <v>17.33</v>
       </c>
       <c r="K36">
         <v>2.27</v>
@@ -3630,7 +3611,7 @@
         <v>15.41</v>
       </c>
       <c r="P36">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="Q36">
         <v>2.06</v>
@@ -3657,16 +3638,16 @@
         <v>11.1</v>
       </c>
       <c r="Y36">
-        <v>17.170000000000002</v>
+        <v>17.17</v>
       </c>
       <c r="Z36">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="AA36">
         <v>1.66</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3710,19 +3691,19 @@
         <v>10.54</v>
       </c>
       <c r="O37">
-        <v>18.579999999999998</v>
+        <v>18.58</v>
       </c>
       <c r="P37">
         <v>3.37</v>
       </c>
       <c r="Q37">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="R37">
         <v>24.48</v>
       </c>
       <c r="S37">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="T37">
         <v>17.93</v>
@@ -3749,7 +3730,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3811,7 +3792,7 @@
         <v>16.79</v>
       </c>
       <c r="U38">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="V38">
         <v>1.72</v>
@@ -3823,7 +3804,7 @@
         <v>11.83</v>
       </c>
       <c r="Y38">
-        <v>18.579999999999998</v>
+        <v>18.58</v>
       </c>
       <c r="Z38">
         <v>2.37</v>
@@ -3832,7 +3813,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3867,7 +3848,7 @@
         <v>3.88</v>
       </c>
       <c r="L39">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="M39">
         <v>23.25</v>
@@ -3876,7 +3857,7 @@
         <v>11.1</v>
       </c>
       <c r="O39">
-        <v>17.690000000000001</v>
+        <v>17.69</v>
       </c>
       <c r="P39">
         <v>3.46</v>
@@ -3909,13 +3890,13 @@
         <v>18.64</v>
       </c>
       <c r="Z39">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="AA39">
         <v>0.23</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3929,7 +3910,7 @@
         <v>13.8</v>
       </c>
       <c r="E40">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="F40">
         <v>10.8</v>
@@ -3959,13 +3940,13 @@
         <v>9.59</v>
       </c>
       <c r="O40">
-        <v>18.940000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="P40">
         <v>3.86</v>
       </c>
       <c r="Q40">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="R40">
         <v>22.41</v>
@@ -3974,13 +3955,13 @@
         <v>10.92</v>
       </c>
       <c r="T40">
-        <v>16.760000000000002</v>
+        <v>16.76</v>
       </c>
       <c r="U40">
         <v>2.39</v>
       </c>
       <c r="V40">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W40">
         <v>22.72</v>
@@ -3998,7 +3979,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4027,7 +4008,7 @@
         <v>12.05</v>
       </c>
       <c r="J41">
-        <v>18.510000000000002</v>
+        <v>18.51</v>
       </c>
       <c r="K41">
         <v>3.89</v>
@@ -4072,7 +4053,7 @@
         <v>14.56</v>
       </c>
       <c r="Y41">
-        <v>19.920000000000002</v>
+        <v>19.92</v>
       </c>
       <c r="Z41">
         <v>1.95</v>
@@ -4081,7 +4062,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4089,7 +4070,7 @@
         <v>66</v>
       </c>
       <c r="C42">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="D42">
         <v>20.8</v>
@@ -4131,13 +4112,13 @@
         <v>1.43</v>
       </c>
       <c r="Q42">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R42">
         <v>20.67</v>
       </c>
       <c r="S42">
-        <v>9.7899999999999991</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="T42">
         <v>15.5</v>
@@ -4164,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4193,7 +4174,7 @@
         <v>7.53</v>
       </c>
       <c r="J43">
-        <v>16.420000000000002</v>
+        <v>16.42</v>
       </c>
       <c r="K43">
         <v>3.4</v>
@@ -4214,7 +4195,7 @@
         <v>3.49</v>
       </c>
       <c r="Q43">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="R43">
         <v>19.66</v>
@@ -4232,7 +4213,7 @@
         <v>2.63</v>
       </c>
       <c r="W43">
-        <v>19.489999999999998</v>
+        <v>19.49</v>
       </c>
       <c r="X43">
         <v>7.14</v>
@@ -4247,7 +4228,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4273,16 +4254,16 @@
         <v>24.72</v>
       </c>
       <c r="I44">
-        <v>9.11</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J44">
-        <v>17.760000000000002</v>
+        <v>17.76</v>
       </c>
       <c r="K44">
         <v>3.07</v>
       </c>
       <c r="L44">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M44">
         <v>22.88</v>
@@ -4291,7 +4272,7 @@
         <v>9.02</v>
       </c>
       <c r="O44">
-        <v>16.739999999999998</v>
+        <v>16.74</v>
       </c>
       <c r="P44">
         <v>3.07</v>
@@ -4330,7 +4311,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4347,7 +4328,7 @@
         <v>20</v>
       </c>
       <c r="F45">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="G45" t="s">
         <v>88</v>
@@ -4359,7 +4340,7 @@
         <v>5.7</v>
       </c>
       <c r="J45">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K45">
         <v>2.57</v>
@@ -4377,10 +4358,10 @@
         <v>10.47</v>
       </c>
       <c r="P45">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="Q45">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="R45">
         <v>13.98</v>
@@ -4389,7 +4370,7 @@
         <v>5.77</v>
       </c>
       <c r="T45">
-        <v>9.8699999999999992</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="U45">
         <v>2.42</v>
@@ -4410,10 +4391,10 @@
         <v>2.63</v>
       </c>
       <c r="AA45">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4472,7 +4453,7 @@
         <v>-2.77</v>
       </c>
       <c r="T46">
-        <v>-1.1200000000000001</v>
+        <v>-1.12</v>
       </c>
       <c r="U46">
         <v>6.05</v>
@@ -4496,7 +4477,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4510,7 +4491,7 @@
         <v>21.1</v>
       </c>
       <c r="E47">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="F47">
         <v>17.8</v>
@@ -4579,7 +4560,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4620,7 +4601,7 @@
         <v>21.86</v>
       </c>
       <c r="N48">
-        <v>8.36</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="O48">
         <v>15.58</v>
@@ -4629,7 +4610,7 @@
         <v>1.97</v>
       </c>
       <c r="Q48">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="R48">
         <v>20.86</v>
@@ -4662,7 +4643,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4688,7 +4669,7 @@
         <v>21.4</v>
       </c>
       <c r="I49">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="J49">
         <v>15.59</v>
@@ -4718,7 +4699,7 @@
         <v>20.69</v>
       </c>
       <c r="S49">
-        <v>8.5500000000000007</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="T49">
         <v>15.14</v>
@@ -4742,10 +4723,10 @@
         <v>3.13</v>
       </c>
       <c r="AA49">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4759,10 +4740,10 @@
         <v>19.5</v>
       </c>
       <c r="E50">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="F50">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="G50" t="s">
         <v>88</v>
@@ -4774,7 +4755,7 @@
         <v>9.52</v>
       </c>
       <c r="J50">
-        <v>17.190000000000001</v>
+        <v>17.19</v>
       </c>
       <c r="K50">
         <v>3.88</v>
@@ -4801,7 +4782,7 @@
         <v>21.31</v>
       </c>
       <c r="S50">
-        <v>8.64</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="T50">
         <v>15.93</v>
@@ -4810,7 +4791,7 @@
         <v>3.94</v>
       </c>
       <c r="V50">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W50">
         <v>19.47</v>
@@ -4825,10 +4806,10 @@
         <v>4.13</v>
       </c>
       <c r="AA50">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4854,22 +4835,22 @@
         <v>20.43</v>
       </c>
       <c r="I51">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="J51">
         <v>14.44</v>
       </c>
       <c r="K51">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="L51">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="M51">
         <v>21.68</v>
       </c>
       <c r="N51">
-        <v>9.4499999999999993</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="O51">
         <v>15.41</v>
@@ -4890,7 +4871,7 @@
         <v>14.61</v>
       </c>
       <c r="U51">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="V51">
         <v>1.38</v>
@@ -4911,7 +4892,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4919,10 +4900,10 @@
         <v>76</v>
       </c>
       <c r="C52">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="D52">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E52">
         <v>25.1</v>
@@ -4994,7 +4975,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5002,7 +4983,7 @@
         <v>77</v>
       </c>
       <c r="C53">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="D53">
         <v>24.3</v>
@@ -5026,7 +5007,7 @@
         <v>15.08</v>
       </c>
       <c r="K53">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="L53">
         <v>0.84</v>
@@ -5056,7 +5037,7 @@
         <v>14.15</v>
       </c>
       <c r="U53">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="V53">
         <v>0.93</v>
@@ -5077,7 +5058,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5094,7 +5075,7 @@
         <v>13.9</v>
       </c>
       <c r="F54">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G54" t="s">
         <v>89</v>
@@ -5109,7 +5090,7 @@
         <v>19.5</v>
       </c>
       <c r="K54">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="L54">
         <v>2.37</v>
@@ -5136,7 +5117,7 @@
         <v>11.74</v>
       </c>
       <c r="T54">
-        <v>18.940000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="U54">
         <v>1.88</v>
@@ -5160,7 +5141,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5171,7 +5152,7 @@
         <v>16</v>
       </c>
       <c r="D55">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -5243,7 +5224,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5293,7 +5274,7 @@
         <v>2.52</v>
       </c>
       <c r="Q56">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="R56">
         <v>24.36</v>
@@ -5326,7 +5307,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5337,7 +5318,7 @@
         <v>38.1</v>
       </c>
       <c r="D57">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E57">
         <v>27.5</v>
@@ -5379,7 +5360,7 @@
         <v>3.9</v>
       </c>
       <c r="R57">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="S57">
         <v>10.68</v>
@@ -5400,7 +5381,7 @@
         <v>12.12</v>
       </c>
       <c r="Y57">
-        <v>16.579999999999998</v>
+        <v>16.58</v>
       </c>
       <c r="Z57">
         <v>2.02</v>
@@ -5409,7 +5390,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5426,7 +5407,7 @@
         <v>14.3</v>
       </c>
       <c r="F58">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="G58" t="s">
         <v>89</v>
@@ -5441,10 +5422,10 @@
         <v>18.28</v>
       </c>
       <c r="K58">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="L58">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="M58">
         <v>23.05</v>
@@ -5468,7 +5449,7 @@
         <v>13.04</v>
       </c>
       <c r="T58">
-        <v>18.190000000000001</v>
+        <v>18.19</v>
       </c>
       <c r="U58">
         <v>1.97</v>
@@ -5483,7 +5464,7 @@
         <v>13.59</v>
       </c>
       <c r="Y58">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="Z58">
         <v>2.02</v>
@@ -5492,7 +5473,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5527,7 +5508,7 @@
         <v>1.62</v>
       </c>
       <c r="L59">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="M59">
         <v>22.56</v>
@@ -5536,13 +5517,13 @@
         <v>10.86</v>
       </c>
       <c r="O59">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="P59">
         <v>1.78</v>
       </c>
       <c r="Q59">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="R59">
         <v>22.93</v>
@@ -5575,7 +5556,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5583,7 +5564,7 @@
         <v>37</v>
       </c>
       <c r="C60">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="D60">
         <v>10.6</v>
@@ -5610,7 +5591,7 @@
         <v>2.75</v>
       </c>
       <c r="L60">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="M60">
         <v>23.67</v>
@@ -5625,7 +5606,7 @@
         <v>3.08</v>
       </c>
       <c r="Q60">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="R60">
         <v>23.57</v>
@@ -5649,16 +5630,16 @@
         <v>11.22</v>
       </c>
       <c r="Y60">
-        <v>18.649999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="Z60">
         <v>2.79</v>
       </c>
       <c r="AA60">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5699,7 +5680,7 @@
         <v>19.89</v>
       </c>
       <c r="N61">
-        <v>9.86</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="O61">
         <v>15.02</v>
@@ -5708,13 +5689,13 @@
         <v>3.54</v>
       </c>
       <c r="Q61">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="R61">
         <v>19.63</v>
       </c>
       <c r="S61">
-        <v>9.6300000000000008</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="T61">
         <v>14.82</v>
@@ -5741,7 +5722,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5824,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5835,7 +5816,7 @@
         <v>23.9</v>
       </c>
       <c r="D63">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E63">
         <v>29.6</v>
@@ -5907,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5921,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F64">
         <v>10.3</v>
@@ -5984,13 +5965,13 @@
         <v>22.01</v>
       </c>
       <c r="Z64">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="AA64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5998,13 +5979,13 @@
         <v>79</v>
       </c>
       <c r="C65">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="D65">
         <v>16.8</v>
       </c>
       <c r="E65">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="F65">
         <v>17.2</v>
@@ -6034,7 +6015,7 @@
         <v>10.81</v>
       </c>
       <c r="O65">
-        <v>17.190000000000001</v>
+        <v>17.19</v>
       </c>
       <c r="P65">
         <v>1.84</v>
@@ -6049,7 +6030,7 @@
         <v>10.93</v>
       </c>
       <c r="T65">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="U65">
         <v>1.95</v>
@@ -6073,7 +6054,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6099,7 +6080,7 @@
         <v>26.82</v>
       </c>
       <c r="I66">
-        <v>18.809999999999999</v>
+        <v>18.81</v>
       </c>
       <c r="J66">
         <v>22.89</v>
@@ -6144,7 +6125,7 @@
         <v>26.79</v>
       </c>
       <c r="X66">
-        <v>18.649999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="Y66">
         <v>22.82</v>
@@ -6156,7 +6137,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6215,7 +6196,7 @@
         <v>11.89</v>
       </c>
       <c r="T67">
-        <v>17.329999999999998</v>
+        <v>17.33</v>
       </c>
       <c r="U67">
         <v>2.67</v>
@@ -6227,19 +6208,19 @@
         <v>21.6</v>
       </c>
       <c r="X67">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="Y67">
-        <v>16.309999999999999</v>
+        <v>16.31</v>
       </c>
       <c r="Z67">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="AA67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6247,13 +6228,13 @@
         <v>49</v>
       </c>
       <c r="C68">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="D68">
         <v>16.8</v>
       </c>
       <c r="E68">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="F68">
         <v>25.9</v>
@@ -6322,7 +6303,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6336,22 +6317,22 @@
         <v>10.8</v>
       </c>
       <c r="E69">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="F69">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="G69" t="s">
         <v>89</v>
       </c>
       <c r="H69">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="I69">
         <v>15.65</v>
       </c>
       <c r="J69">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -6378,7 +6359,7 @@
         <v>24.55</v>
       </c>
       <c r="S69">
-        <v>16.149999999999999</v>
+        <v>16.15</v>
       </c>
       <c r="T69">
         <v>21.21</v>
@@ -6387,7 +6368,7 @@
         <v>2.93</v>
       </c>
       <c r="V69">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="W69">
         <v>24.86</v>
@@ -6405,7 +6386,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6431,7 +6412,7 @@
         <v>25.72</v>
       </c>
       <c r="I70">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="J70">
         <v>23.12</v>
@@ -6488,7 +6469,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6505,7 +6486,7 @@
         <v>12.2</v>
       </c>
       <c r="F71">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G71" t="s">
         <v>89</v>
@@ -6517,7 +6498,7 @@
         <v>14.44</v>
       </c>
       <c r="J71">
-        <v>20.149999999999999</v>
+        <v>20.15</v>
       </c>
       <c r="K71">
         <v>3.95</v>
@@ -6535,7 +6516,7 @@
         <v>20.86</v>
       </c>
       <c r="P71">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="Q71">
         <v>0.06</v>
@@ -6547,10 +6528,10 @@
         <v>14.09</v>
       </c>
       <c r="T71">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="U71">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="V71">
         <v>0.36</v>
@@ -6571,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6582,10 +6563,10 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="E72">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -6612,7 +6593,7 @@
         <v>21.97</v>
       </c>
       <c r="N72">
-        <v>9.6199999999999992</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="O72">
         <v>15.97</v>
@@ -6654,7 +6635,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6683,7 +6664,7 @@
         <v>10.01</v>
       </c>
       <c r="J73">
-        <v>16.059999999999999</v>
+        <v>16.06</v>
       </c>
       <c r="K73">
         <v>1.65</v>
@@ -6725,7 +6706,7 @@
         <v>19.73</v>
       </c>
       <c r="X73">
-        <v>9.4499999999999993</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="Y73">
         <v>14.95</v>
@@ -6737,7 +6718,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6772,7 +6753,7 @@
         <v>3.88</v>
       </c>
       <c r="L74">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="M74">
         <v>23.25</v>
@@ -6781,7 +6762,7 @@
         <v>11.1</v>
       </c>
       <c r="O74">
-        <v>17.690000000000001</v>
+        <v>17.69</v>
       </c>
       <c r="P74">
         <v>3.46</v>
@@ -6814,13 +6795,13 @@
         <v>18.64</v>
       </c>
       <c r="Z74">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="AA74">
         <v>0.23</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6837,7 +6818,7 @@
         <v>12.4</v>
       </c>
       <c r="F75">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G75" t="s">
         <v>89</v>
@@ -6849,7 +6830,7 @@
         <v>9.52</v>
       </c>
       <c r="J75">
-        <v>17.190000000000001</v>
+        <v>17.19</v>
       </c>
       <c r="K75">
         <v>3.88</v>
@@ -6876,7 +6857,7 @@
         <v>21.31</v>
       </c>
       <c r="S75">
-        <v>8.64</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="T75">
         <v>15.93</v>
@@ -6885,7 +6866,7 @@
         <v>3.94</v>
       </c>
       <c r="V75">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W75">
         <v>19.47</v>
@@ -6900,10 +6881,10 @@
         <v>4.13</v>
       </c>
       <c r="AA75">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6986,7 +6967,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7036,7 +7017,7 @@
         <v>2.52</v>
       </c>
       <c r="Q77">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="R77">
         <v>24.36</v>
@@ -7069,7 +7050,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7077,7 +7058,7 @@
         <v>45</v>
       </c>
       <c r="C78">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -7095,7 +7076,7 @@
         <v>28.9</v>
       </c>
       <c r="I78">
-        <v>16.190000000000001</v>
+        <v>16.19</v>
       </c>
       <c r="J78">
         <v>22.77</v>
@@ -7149,10 +7130,10 @@
         <v>5.25</v>
       </c>
       <c r="AA78">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7235,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7312,13 +7293,13 @@
         <v>22.01</v>
       </c>
       <c r="Z80">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="AA80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7392,7 +7373,7 @@
         <v>14.8</v>
       </c>
       <c r="Y81">
-        <v>19.309999999999999</v>
+        <v>19.31</v>
       </c>
       <c r="Z81">
         <v>2.75</v>
@@ -7401,7 +7382,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7445,7 +7426,7 @@
         <v>10.81</v>
       </c>
       <c r="O82">
-        <v>17.190000000000001</v>
+        <v>17.19</v>
       </c>
       <c r="P82">
         <v>1.84</v>
@@ -7460,7 +7441,7 @@
         <v>10.93</v>
       </c>
       <c r="T82">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="U82">
         <v>1.95</v>
@@ -7484,7 +7465,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7510,7 +7491,7 @@
         <v>25.72</v>
       </c>
       <c r="I83">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="J83">
         <v>23.12</v>
@@ -7567,7 +7548,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7578,13 +7559,13 @@
         <v>8.6</v>
       </c>
       <c r="D84">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="E84">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F84">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="G84" t="s">
         <v>90</v>
@@ -7596,7 +7577,7 @@
         <v>14.44</v>
       </c>
       <c r="J84">
-        <v>20.149999999999999</v>
+        <v>20.15</v>
       </c>
       <c r="K84">
         <v>3.95</v>
@@ -7614,7 +7595,7 @@
         <v>20.86</v>
       </c>
       <c r="P84">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="Q84">
         <v>0.06</v>
@@ -7626,10 +7607,10 @@
         <v>14.09</v>
       </c>
       <c r="T84">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="U84">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="V84">
         <v>0.36</v>
@@ -7650,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7661,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -7697,7 +7678,7 @@
         <v>15.39</v>
       </c>
       <c r="P85">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="Q85">
         <v>2.73</v>
@@ -7706,7 +7687,7 @@
         <v>20.12</v>
       </c>
       <c r="S85">
-        <v>9.5500000000000007</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="T85">
         <v>15.03</v>
@@ -7715,7 +7696,7 @@
         <v>2.66</v>
       </c>
       <c r="V85">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="W85">
         <v>21.76</v>
@@ -7733,7 +7714,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7750,7 +7731,7 @@
         <v>12.5</v>
       </c>
       <c r="F86">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G86" t="s">
         <v>90</v>
@@ -7777,19 +7758,19 @@
         <v>10.54</v>
       </c>
       <c r="O86">
-        <v>18.579999999999998</v>
+        <v>18.58</v>
       </c>
       <c r="P86">
         <v>3.37</v>
       </c>
       <c r="Q86">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="R86">
         <v>24.48</v>
       </c>
       <c r="S86">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="T86">
         <v>17.93</v>
@@ -7816,7 +7797,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7851,7 +7832,7 @@
         <v>3.88</v>
       </c>
       <c r="L87">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="M87">
         <v>23.25</v>
@@ -7860,7 +7841,7 @@
         <v>11.1</v>
       </c>
       <c r="O87">
-        <v>17.690000000000001</v>
+        <v>17.69</v>
       </c>
       <c r="P87">
         <v>3.46</v>
@@ -7893,13 +7874,13 @@
         <v>18.64</v>
       </c>
       <c r="Z87">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="AA87">
         <v>0.23</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7913,7 +7894,7 @@
         <v>7.8</v>
       </c>
       <c r="E88">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F88">
         <v>7.6</v>
@@ -7943,13 +7924,13 @@
         <v>9.59</v>
       </c>
       <c r="O88">
-        <v>18.940000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="P88">
         <v>3.86</v>
       </c>
       <c r="Q88">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="R88">
         <v>22.41</v>
@@ -7958,13 +7939,13 @@
         <v>10.92</v>
       </c>
       <c r="T88">
-        <v>16.760000000000002</v>
+        <v>16.76</v>
       </c>
       <c r="U88">
         <v>2.39</v>
       </c>
       <c r="V88">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W88">
         <v>22.72</v>
@@ -7982,7 +7963,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7996,10 +7977,10 @@
         <v>9.9</v>
       </c>
       <c r="E89">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="F89">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G89" t="s">
         <v>90</v>
@@ -8008,16 +7989,16 @@
         <v>24.72</v>
       </c>
       <c r="I89">
-        <v>9.11</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J89">
-        <v>17.760000000000002</v>
+        <v>17.76</v>
       </c>
       <c r="K89">
         <v>3.07</v>
       </c>
       <c r="L89">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M89">
         <v>22.88</v>
@@ -8026,7 +8007,7 @@
         <v>9.02</v>
       </c>
       <c r="O89">
-        <v>16.739999999999998</v>
+        <v>16.74</v>
       </c>
       <c r="P89">
         <v>3.07</v>
@@ -8065,7 +8046,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8082,7 +8063,7 @@
         <v>6.9</v>
       </c>
       <c r="F90">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G90" t="s">
         <v>90</v>
@@ -8100,7 +8081,7 @@
         <v>2.95</v>
       </c>
       <c r="L90">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="M90">
         <v>23.21</v>
@@ -8148,7 +8129,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8207,7 +8188,7 @@
         <v>-2.77</v>
       </c>
       <c r="T91">
-        <v>-1.1200000000000001</v>
+        <v>-1.12</v>
       </c>
       <c r="U91">
         <v>6.05</v>
@@ -8231,7 +8212,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8257,7 +8238,7 @@
         <v>21.4</v>
       </c>
       <c r="I92">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="J92">
         <v>15.59</v>
@@ -8287,7 +8268,7 @@
         <v>20.69</v>
       </c>
       <c r="S92">
-        <v>8.5500000000000007</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="T92">
         <v>15.14</v>
@@ -8311,10 +8292,10 @@
         <v>3.13</v>
       </c>
       <c r="AA92">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8346,7 +8327,7 @@
         <v>19.5</v>
       </c>
       <c r="K93">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="L93">
         <v>2.37</v>
@@ -8373,7 +8354,7 @@
         <v>11.74</v>
       </c>
       <c r="T93">
-        <v>18.940000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="U93">
         <v>1.88</v>
@@ -8397,7 +8378,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8432,7 +8413,7 @@
         <v>2.75</v>
       </c>
       <c r="L94">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="M94">
         <v>23.67</v>
@@ -8447,7 +8428,7 @@
         <v>3.08</v>
       </c>
       <c r="Q94">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="R94">
         <v>23.57</v>
@@ -8471,16 +8452,16 @@
         <v>11.22</v>
       </c>
       <c r="Y94">
-        <v>18.649999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="Z94">
         <v>2.79</v>
       </c>
       <c r="AA94">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8488,7 +8469,7 @@
         <v>45</v>
       </c>
       <c r="C95">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D95">
         <v>10.8</v>
@@ -8506,7 +8487,7 @@
         <v>28.9</v>
       </c>
       <c r="I95">
-        <v>16.190000000000001</v>
+        <v>16.19</v>
       </c>
       <c r="J95">
         <v>22.77</v>
@@ -8560,10 +8541,10 @@
         <v>5.25</v>
       </c>
       <c r="AA95">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8607,7 +8588,7 @@
         <v>10.81</v>
       </c>
       <c r="O96">
-        <v>17.190000000000001</v>
+        <v>17.19</v>
       </c>
       <c r="P96">
         <v>1.84</v>
@@ -8622,7 +8603,7 @@
         <v>10.93</v>
       </c>
       <c r="T96">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="U96">
         <v>1.95</v>
@@ -8646,7 +8627,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8729,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8740,7 +8721,7 @@
         <v>11.6</v>
       </c>
       <c r="D98">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -8806,13 +8787,13 @@
         <v>22.01</v>
       </c>
       <c r="Z98">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="AA98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8886,7 +8867,7 @@
         <v>14.8</v>
       </c>
       <c r="Y99">
-        <v>19.309999999999999</v>
+        <v>19.31</v>
       </c>
       <c r="Z99">
         <v>2.75</v>
@@ -8895,7 +8876,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8906,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E100">
         <v>11</v>
@@ -8939,7 +8920,7 @@
         <v>10.81</v>
       </c>
       <c r="O100">
-        <v>17.190000000000001</v>
+        <v>17.19</v>
       </c>
       <c r="P100">
         <v>1.84</v>
@@ -8954,7 +8935,7 @@
         <v>10.93</v>
       </c>
       <c r="T100">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="U100">
         <v>1.95</v>
@@ -8978,7 +8959,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9061,7 +9042,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9087,7 +9068,7 @@
         <v>25.72</v>
       </c>
       <c r="I102">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="J102">
         <v>23.12</v>
@@ -9144,7 +9125,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9185,7 +9166,7 @@
         <v>21.97</v>
       </c>
       <c r="N103">
-        <v>9.6199999999999992</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="O103">
         <v>15.97</v>
@@ -9227,7 +9208,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9271,19 +9252,19 @@
         <v>10.54</v>
       </c>
       <c r="O104">
-        <v>18.579999999999998</v>
+        <v>18.58</v>
       </c>
       <c r="P104">
         <v>3.37</v>
       </c>
       <c r="Q104">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="R104">
         <v>24.48</v>
       </c>
       <c r="S104">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="T104">
         <v>17.93</v>
@@ -9310,7 +9291,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9318,7 +9299,7 @@
         <v>63</v>
       </c>
       <c r="C105">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D105">
         <v>7.2</v>
@@ -9345,7 +9326,7 @@
         <v>3.88</v>
       </c>
       <c r="L105">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="M105">
         <v>23.25</v>
@@ -9354,7 +9335,7 @@
         <v>11.1</v>
       </c>
       <c r="O105">
-        <v>17.690000000000001</v>
+        <v>17.69</v>
       </c>
       <c r="P105">
         <v>3.46</v>
@@ -9387,13 +9368,13 @@
         <v>18.64</v>
       </c>
       <c r="Z105">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="AA105">
         <v>0.23</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9407,7 +9388,7 @@
         <v>7.4</v>
       </c>
       <c r="E106">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F106">
         <v>7.7</v>
@@ -9422,7 +9403,7 @@
         <v>7.53</v>
       </c>
       <c r="J106">
-        <v>16.420000000000002</v>
+        <v>16.42</v>
       </c>
       <c r="K106">
         <v>3.4</v>
@@ -9443,7 +9424,7 @@
         <v>3.49</v>
       </c>
       <c r="Q106">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="R106">
         <v>19.66</v>
@@ -9461,7 +9442,7 @@
         <v>2.63</v>
       </c>
       <c r="W106">
-        <v>19.489999999999998</v>
+        <v>19.49</v>
       </c>
       <c r="X106">
         <v>7.14</v>
@@ -9476,7 +9457,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9493,7 +9474,7 @@
         <v>0.7</v>
       </c>
       <c r="F107">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G107" t="s">
         <v>91</v>
@@ -9517,13 +9498,13 @@
         <v>19.36</v>
       </c>
       <c r="N107">
-        <v>8.7799999999999994</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="O107">
         <v>14.5</v>
       </c>
       <c r="P107">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="Q107">
         <v>0.2</v>
@@ -9532,10 +9513,10 @@
         <v>13.22</v>
       </c>
       <c r="S107">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="T107">
-        <v>8.2100000000000009</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="U107">
         <v>2.31</v>
@@ -9559,7 +9540,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9585,16 +9566,16 @@
         <v>24.72</v>
       </c>
       <c r="I108">
-        <v>9.11</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J108">
-        <v>17.760000000000002</v>
+        <v>17.76</v>
       </c>
       <c r="K108">
         <v>3.07</v>
       </c>
       <c r="L108">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M108">
         <v>22.88</v>
@@ -9603,7 +9584,7 @@
         <v>9.02</v>
       </c>
       <c r="O108">
-        <v>16.739999999999998</v>
+        <v>16.74</v>
       </c>
       <c r="P108">
         <v>3.07</v>
@@ -9642,7 +9623,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9677,7 +9658,7 @@
         <v>2.95</v>
       </c>
       <c r="L109">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="M109">
         <v>23.21</v>
@@ -9725,7 +9706,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9733,7 +9714,7 @@
         <v>73</v>
       </c>
       <c r="C110">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D110">
         <v>10.4</v>
@@ -9751,7 +9732,7 @@
         <v>21.4</v>
       </c>
       <c r="I110">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="J110">
         <v>15.59</v>
@@ -9781,7 +9762,7 @@
         <v>20.69</v>
       </c>
       <c r="S110">
-        <v>8.5500000000000007</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="T110">
         <v>15.14</v>
@@ -9805,10 +9786,10 @@
         <v>3.13</v>
       </c>
       <c r="AA110">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9837,7 +9818,7 @@
         <v>9.52</v>
       </c>
       <c r="J111">
-        <v>17.190000000000001</v>
+        <v>17.19</v>
       </c>
       <c r="K111">
         <v>3.88</v>
@@ -9864,7 +9845,7 @@
         <v>21.31</v>
       </c>
       <c r="S111">
-        <v>8.64</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="T111">
         <v>15.93</v>
@@ -9873,7 +9854,7 @@
         <v>3.94</v>
       </c>
       <c r="V111">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W111">
         <v>19.47</v>
@@ -9888,10 +9869,10 @@
         <v>4.13</v>
       </c>
       <c r="AA111">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9899,10 +9880,10 @@
         <v>27</v>
       </c>
       <c r="C112">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="D112">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="E112">
         <v>22</v>
@@ -9950,7 +9931,7 @@
         <v>10.94</v>
       </c>
       <c r="T112">
-        <v>17.149999999999999</v>
+        <v>17.15</v>
       </c>
       <c r="U112">
         <v>3.03</v>
@@ -9974,7 +9955,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10057,7 +10038,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10107,7 +10088,7 @@
         <v>2.52</v>
       </c>
       <c r="Q114">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="R114">
         <v>24.36</v>
@@ -10140,7 +10121,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10157,7 +10138,7 @@
         <v>22.5</v>
       </c>
       <c r="F115">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="G115" t="s">
         <v>92</v>
@@ -10187,7 +10168,7 @@
         <v>14.75</v>
       </c>
       <c r="P115">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="Q115">
         <v>2.91</v>
@@ -10214,7 +10195,7 @@
         <v>12.18</v>
       </c>
       <c r="Y115">
-        <v>17.829999999999998</v>
+        <v>17.83</v>
       </c>
       <c r="Z115">
         <v>3.32</v>
@@ -10223,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10237,7 +10218,7 @@
         <v>19.8</v>
       </c>
       <c r="E116">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="F116">
         <v>14.9</v>
@@ -10276,7 +10257,7 @@
         <v>3.9</v>
       </c>
       <c r="R116">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="S116">
         <v>10.68</v>
@@ -10297,7 +10278,7 @@
         <v>12.12</v>
       </c>
       <c r="Y116">
-        <v>16.579999999999998</v>
+        <v>16.58</v>
       </c>
       <c r="Z116">
         <v>2.02</v>
@@ -10306,7 +10287,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10341,7 +10322,7 @@
         <v>2.89</v>
       </c>
       <c r="L117">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="M117">
         <v>20.84</v>
@@ -10374,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="W117">
-        <v>20.420000000000002</v>
+        <v>20.42</v>
       </c>
       <c r="X117">
         <v>9.92</v>
@@ -10389,7 +10370,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -10418,7 +10399,7 @@
         <v>13.56</v>
       </c>
       <c r="J118">
-        <v>17.149999999999999</v>
+        <v>17.15</v>
       </c>
       <c r="K118">
         <v>1.17</v>
@@ -10448,7 +10429,7 @@
         <v>13.46</v>
       </c>
       <c r="T118">
-        <v>17.510000000000002</v>
+        <v>17.51</v>
       </c>
       <c r="U118">
         <v>0.75</v>
@@ -10472,7 +10453,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -10507,7 +10488,7 @@
         <v>1.62</v>
       </c>
       <c r="L119">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="M119">
         <v>22.56</v>
@@ -10516,13 +10497,13 @@
         <v>10.86</v>
       </c>
       <c r="O119">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="P119">
         <v>1.78</v>
       </c>
       <c r="Q119">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="R119">
         <v>22.93</v>
@@ -10555,7 +10536,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -10638,7 +10619,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -10649,10 +10630,10 @@
         <v>15.7</v>
       </c>
       <c r="D121">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="E121">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="F121">
         <v>14.9</v>
@@ -10685,7 +10666,7 @@
         <v>17.55</v>
       </c>
       <c r="P121">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="Q121">
         <v>2.14</v>
@@ -10706,7 +10687,7 @@
         <v>3.27</v>
       </c>
       <c r="W121">
-        <v>19.010000000000002</v>
+        <v>19.01</v>
       </c>
       <c r="X121">
         <v>9.15</v>
@@ -10721,7 +10702,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -10756,7 +10737,7 @@
         <v>2.75</v>
       </c>
       <c r="L122">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="M122">
         <v>23.67</v>
@@ -10771,7 +10752,7 @@
         <v>3.08</v>
       </c>
       <c r="Q122">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="R122">
         <v>23.57</v>
@@ -10795,16 +10776,16 @@
         <v>11.22</v>
       </c>
       <c r="Y122">
-        <v>18.649999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="Z122">
         <v>2.79</v>
       </c>
       <c r="AA122">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -10830,7 +10811,7 @@
         <v>17.73</v>
       </c>
       <c r="I123">
-        <v>8.4600000000000009</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="J123">
         <v>12.99</v>
@@ -10878,16 +10859,16 @@
         <v>14.59</v>
       </c>
       <c r="Y123">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="Z123">
         <v>2.57</v>
       </c>
       <c r="AA123">
-        <v>8.86</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -10955,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="W124">
-        <v>17.850000000000001</v>
+        <v>17.85</v>
       </c>
       <c r="X124">
         <v>11.98</v>
@@ -10970,7 +10951,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -10996,7 +10977,7 @@
         <v>21.53</v>
       </c>
       <c r="I125">
-        <v>9.5500000000000007</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J125">
         <v>15.56</v>
@@ -11041,10 +11022,10 @@
         <v>23.02</v>
       </c>
       <c r="X125">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="Y125">
-        <v>16.809999999999999</v>
+        <v>16.81</v>
       </c>
       <c r="Z125">
         <v>2.72</v>
@@ -11053,7 +11034,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -11061,7 +11042,7 @@
         <v>46</v>
       </c>
       <c r="C126">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D126">
         <v>11.7</v>
@@ -11097,7 +11078,7 @@
         <v>10.81</v>
       </c>
       <c r="O126">
-        <v>17.190000000000001</v>
+        <v>17.19</v>
       </c>
       <c r="P126">
         <v>1.84</v>
@@ -11112,7 +11093,7 @@
         <v>10.93</v>
       </c>
       <c r="T126">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="U126">
         <v>1.95</v>
@@ -11136,7 +11117,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -11147,7 +11128,7 @@
         <v>27.8</v>
       </c>
       <c r="D127">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E127">
         <v>20</v>
@@ -11219,7 +11200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -11293,7 +11274,7 @@
         <v>14.8</v>
       </c>
       <c r="Y128">
-        <v>19.309999999999999</v>
+        <v>19.31</v>
       </c>
       <c r="Z128">
         <v>2.75</v>
@@ -11302,7 +11283,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11331,7 +11312,7 @@
         <v>14.44</v>
       </c>
       <c r="J129">
-        <v>20.149999999999999</v>
+        <v>20.15</v>
       </c>
       <c r="K129">
         <v>3.95</v>
@@ -11349,7 +11330,7 @@
         <v>20.86</v>
       </c>
       <c r="P129">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="Q129">
         <v>0.06</v>
@@ -11361,10 +11342,10 @@
         <v>14.09</v>
       </c>
       <c r="T129">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="U129">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="V129">
         <v>0.36</v>
@@ -11385,7 +11366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11399,10 +11380,10 @@
         <v>19.5</v>
       </c>
       <c r="E130">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="F130">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="G130" t="s">
         <v>92</v>
@@ -11414,7 +11395,7 @@
         <v>9.69</v>
       </c>
       <c r="J130">
-        <v>18.739999999999998</v>
+        <v>18.74</v>
       </c>
       <c r="K130">
         <v>3.75</v>
@@ -11429,7 +11410,7 @@
         <v>8.58</v>
       </c>
       <c r="O130">
-        <v>16.350000000000001</v>
+        <v>16.35</v>
       </c>
       <c r="P130">
         <v>3.74</v>
@@ -11468,7 +11449,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -11515,7 +11496,7 @@
         <v>15.39</v>
       </c>
       <c r="P131">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="Q131">
         <v>2.73</v>
@@ -11524,7 +11505,7 @@
         <v>20.12</v>
       </c>
       <c r="S131">
-        <v>9.5500000000000007</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="T131">
         <v>15.03</v>
@@ -11533,7 +11514,7 @@
         <v>2.66</v>
       </c>
       <c r="V131">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="W131">
         <v>21.76</v>
@@ -11551,7 +11532,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -11592,7 +11573,7 @@
         <v>21.97</v>
       </c>
       <c r="N132">
-        <v>9.6199999999999992</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="O132">
         <v>15.97</v>
@@ -11634,7 +11615,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -11708,7 +11689,7 @@
         <v>10.62</v>
       </c>
       <c r="Y133">
-        <v>17.149999999999999</v>
+        <v>17.15</v>
       </c>
       <c r="Z133">
         <v>4.03</v>
@@ -11717,7 +11698,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -11788,7 +11769,7 @@
         <v>21</v>
       </c>
       <c r="X134">
-        <v>9.3800000000000008</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="Y134">
         <v>15.11</v>
@@ -11800,7 +11781,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -11811,7 +11792,7 @@
         <v>7.7</v>
       </c>
       <c r="D135">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="E135">
         <v>18.7</v>
@@ -11829,7 +11810,7 @@
         <v>11.72</v>
       </c>
       <c r="J135">
-        <v>17.809999999999999</v>
+        <v>17.81</v>
       </c>
       <c r="K135">
         <v>2.78</v>
@@ -11856,7 +11837,7 @@
         <v>21.3</v>
       </c>
       <c r="S135">
-        <v>9.9499999999999993</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="T135">
         <v>15.67</v>
@@ -11874,7 +11855,7 @@
         <v>10.8</v>
       </c>
       <c r="Y135">
-        <v>17.170000000000002</v>
+        <v>17.17</v>
       </c>
       <c r="Z135">
         <v>3.38</v>
@@ -11883,7 +11864,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -11909,13 +11890,13 @@
         <v>20.72</v>
       </c>
       <c r="I136">
-        <v>10.050000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="J136">
         <v>15.78</v>
       </c>
       <c r="K136">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="L136">
         <v>2.39</v>
@@ -11924,19 +11905,19 @@
         <v>19.86</v>
       </c>
       <c r="N136">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="O136">
         <v>15.39</v>
       </c>
       <c r="P136">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="Q136">
         <v>2.21</v>
       </c>
       <c r="R136">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="S136">
         <v>9</v>
@@ -11957,7 +11938,7 @@
         <v>2.58</v>
       </c>
       <c r="Y136">
-        <v>9.36</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="Z136">
         <v>2.79</v>
@@ -11966,7 +11947,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -11995,7 +11976,7 @@
         <v>10.01</v>
       </c>
       <c r="J137">
-        <v>16.059999999999999</v>
+        <v>16.06</v>
       </c>
       <c r="K137">
         <v>1.65</v>
@@ -12037,7 +12018,7 @@
         <v>19.73</v>
       </c>
       <c r="X137">
-        <v>9.4499999999999993</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="Y137">
         <v>14.95</v>
@@ -12049,7 +12030,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -12078,7 +12059,7 @@
         <v>11.13</v>
       </c>
       <c r="J138">
-        <v>17.329999999999998</v>
+        <v>17.33</v>
       </c>
       <c r="K138">
         <v>2.27</v>
@@ -12096,7 +12077,7 @@
         <v>15.41</v>
       </c>
       <c r="P138">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="Q138">
         <v>2.06</v>
@@ -12123,16 +12104,16 @@
         <v>11.1</v>
       </c>
       <c r="Y138">
-        <v>17.170000000000002</v>
+        <v>17.17</v>
       </c>
       <c r="Z138">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="AA138">
         <v>1.66</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -12194,7 +12175,7 @@
         <v>16.79</v>
       </c>
       <c r="U139">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="V139">
         <v>1.72</v>
@@ -12206,7 +12187,7 @@
         <v>11.83</v>
       </c>
       <c r="Y139">
-        <v>18.579999999999998</v>
+        <v>18.58</v>
       </c>
       <c r="Z139">
         <v>2.37</v>
@@ -12215,7 +12196,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -12250,7 +12231,7 @@
         <v>3.88</v>
       </c>
       <c r="L140">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="M140">
         <v>23.25</v>
@@ -12259,7 +12240,7 @@
         <v>11.1</v>
       </c>
       <c r="O140">
-        <v>17.690000000000001</v>
+        <v>17.69</v>
       </c>
       <c r="P140">
         <v>3.46</v>
@@ -12292,13 +12273,13 @@
         <v>18.64</v>
       </c>
       <c r="Z140">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="AA140">
         <v>0.23</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -12306,7 +12287,7 @@
         <v>64</v>
       </c>
       <c r="C141">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="D141">
         <v>21.9</v>
@@ -12315,7 +12296,7 @@
         <v>6.3</v>
       </c>
       <c r="F141">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G141" t="s">
         <v>92</v>
@@ -12342,13 +12323,13 @@
         <v>9.59</v>
       </c>
       <c r="O141">
-        <v>18.940000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="P141">
         <v>3.86</v>
       </c>
       <c r="Q141">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="R141">
         <v>22.41</v>
@@ -12357,13 +12338,13 @@
         <v>10.92</v>
       </c>
       <c r="T141">
-        <v>16.760000000000002</v>
+        <v>16.76</v>
       </c>
       <c r="U141">
         <v>2.39</v>
       </c>
       <c r="V141">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W141">
         <v>22.72</v>
@@ -12381,7 +12362,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -12392,7 +12373,7 @@
         <v>7.8</v>
       </c>
       <c r="D142">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E142">
         <v>13.2</v>
@@ -12410,7 +12391,7 @@
         <v>12.05</v>
       </c>
       <c r="J142">
-        <v>18.510000000000002</v>
+        <v>18.51</v>
       </c>
       <c r="K142">
         <v>3.89</v>
@@ -12455,7 +12436,7 @@
         <v>14.56</v>
       </c>
       <c r="Y142">
-        <v>19.920000000000002</v>
+        <v>19.92</v>
       </c>
       <c r="Z142">
         <v>1.95</v>
@@ -12464,7 +12445,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -12514,13 +12495,13 @@
         <v>1.43</v>
       </c>
       <c r="Q143">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R143">
         <v>20.67</v>
       </c>
       <c r="S143">
-        <v>9.7899999999999991</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="T143">
         <v>15.5</v>
@@ -12547,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -12576,7 +12557,7 @@
         <v>7.53</v>
       </c>
       <c r="J144">
-        <v>16.420000000000002</v>
+        <v>16.42</v>
       </c>
       <c r="K144">
         <v>3.4</v>
@@ -12597,7 +12578,7 @@
         <v>3.49</v>
       </c>
       <c r="Q144">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="R144">
         <v>19.66</v>
@@ -12615,7 +12596,7 @@
         <v>2.63</v>
       </c>
       <c r="W144">
-        <v>19.489999999999998</v>
+        <v>19.49</v>
       </c>
       <c r="X144">
         <v>7.14</v>
@@ -12630,7 +12611,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -12647,7 +12628,7 @@
         <v>29.2</v>
       </c>
       <c r="F145">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="G145" t="s">
         <v>92</v>
@@ -12671,13 +12652,13 @@
         <v>19.36</v>
       </c>
       <c r="N145">
-        <v>8.7799999999999994</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="O145">
         <v>14.5</v>
       </c>
       <c r="P145">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="Q145">
         <v>0.2</v>
@@ -12686,10 +12667,10 @@
         <v>13.22</v>
       </c>
       <c r="S145">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="T145">
-        <v>8.2100000000000009</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="U145">
         <v>2.31</v>
@@ -12713,7 +12694,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -12724,10 +12705,10 @@
         <v>21.4</v>
       </c>
       <c r="D146">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E146">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="F146">
         <v>18.7</v>
@@ -12748,7 +12729,7 @@
         <v>2.95</v>
       </c>
       <c r="L146">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="M146">
         <v>23.21</v>
@@ -12796,7 +12777,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -12804,7 +12785,7 @@
         <v>71</v>
       </c>
       <c r="C147">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="D147">
         <v>13.1</v>
@@ -12879,7 +12860,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -12890,7 +12871,7 @@
         <v>22.1</v>
       </c>
       <c r="D148">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="E148">
         <v>23</v>
@@ -12905,7 +12886,7 @@
         <v>21.4</v>
       </c>
       <c r="I148">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="J148">
         <v>15.59</v>
@@ -12935,7 +12916,7 @@
         <v>20.69</v>
       </c>
       <c r="S148">
-        <v>8.5500000000000007</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="T148">
         <v>15.14</v>
@@ -12959,10 +12940,10 @@
         <v>3.13</v>
       </c>
       <c r="AA148">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -12991,7 +12972,7 @@
         <v>9.52</v>
       </c>
       <c r="J149">
-        <v>17.190000000000001</v>
+        <v>17.19</v>
       </c>
       <c r="K149">
         <v>3.88</v>
@@ -13018,7 +12999,7 @@
         <v>21.31</v>
       </c>
       <c r="S149">
-        <v>8.64</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="T149">
         <v>15.93</v>
@@ -13027,7 +13008,7 @@
         <v>3.94</v>
       </c>
       <c r="V149">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W149">
         <v>19.47</v>
@@ -13042,10 +13023,10 @@
         <v>4.13</v>
       </c>
       <c r="AA149">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -13053,16 +13034,16 @@
         <v>26</v>
       </c>
       <c r="C150">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="D150">
         <v>31.9</v>
       </c>
       <c r="E150">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="F150">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="G150" t="s">
         <v>93</v>
@@ -13077,7 +13058,7 @@
         <v>19.5</v>
       </c>
       <c r="K150">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="L150">
         <v>2.37</v>
@@ -13104,7 +13085,7 @@
         <v>11.74</v>
       </c>
       <c r="T150">
-        <v>18.940000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="U150">
         <v>1.88</v>
@@ -13128,7 +13109,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -13139,7 +13120,7 @@
         <v>18.3</v>
       </c>
       <c r="D151">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="E151">
         <v>19.8</v>
@@ -13187,7 +13168,7 @@
         <v>10.94</v>
       </c>
       <c r="T151">
-        <v>17.149999999999999</v>
+        <v>17.15</v>
       </c>
       <c r="U151">
         <v>3.03</v>
@@ -13211,7 +13192,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -13219,7 +13200,7 @@
         <v>29</v>
       </c>
       <c r="C152">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="D152">
         <v>16.8</v>
@@ -13261,7 +13242,7 @@
         <v>2.52</v>
       </c>
       <c r="Q152">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="R152">
         <v>24.36</v>
@@ -13294,7 +13275,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -13326,10 +13307,10 @@
         <v>18.28</v>
       </c>
       <c r="K153">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="L153">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="M153">
         <v>23.05</v>
@@ -13353,7 +13334,7 @@
         <v>13.04</v>
       </c>
       <c r="T153">
-        <v>18.190000000000001</v>
+        <v>18.19</v>
       </c>
       <c r="U153">
         <v>1.97</v>
@@ -13368,7 +13349,7 @@
         <v>13.59</v>
       </c>
       <c r="Y153">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="Z153">
         <v>2.02</v>
@@ -13377,7 +13358,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -13406,10 +13387,10 @@
         <v>12.36</v>
       </c>
       <c r="J154">
-        <v>18.420000000000002</v>
+        <v>18.42</v>
       </c>
       <c r="K154">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="L154">
         <v>2.11</v>
@@ -13421,7 +13402,7 @@
         <v>11.18</v>
       </c>
       <c r="O154">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="P154">
         <v>2.09</v>
@@ -13436,7 +13417,7 @@
         <v>11.06</v>
       </c>
       <c r="T154">
-        <v>17.510000000000002</v>
+        <v>17.51</v>
       </c>
       <c r="U154">
         <v>2.02</v>
@@ -13460,7 +13441,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -13495,7 +13476,7 @@
         <v>1.62</v>
       </c>
       <c r="L155">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="M155">
         <v>22.56</v>
@@ -13504,13 +13485,13 @@
         <v>10.86</v>
       </c>
       <c r="O155">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="P155">
         <v>1.78</v>
       </c>
       <c r="Q155">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="R155">
         <v>22.93</v>
@@ -13543,7 +13524,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -13554,7 +13535,7 @@
         <v>12.4</v>
       </c>
       <c r="D156">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="E156">
         <v>29</v>
@@ -13626,7 +13607,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -13634,7 +13615,7 @@
         <v>37</v>
       </c>
       <c r="C157">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="D157">
         <v>22.2</v>
@@ -13661,7 +13642,7 @@
         <v>2.75</v>
       </c>
       <c r="L157">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="M157">
         <v>23.67</v>
@@ -13676,7 +13657,7 @@
         <v>3.08</v>
       </c>
       <c r="Q157">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="R157">
         <v>23.57</v>
@@ -13700,16 +13681,16 @@
         <v>11.22</v>
       </c>
       <c r="Y157">
-        <v>18.649999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="Z157">
         <v>2.79</v>
       </c>
       <c r="AA157">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -13723,7 +13704,7 @@
         <v>21.1</v>
       </c>
       <c r="E158">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="F158">
         <v>18.5</v>
@@ -13735,7 +13716,7 @@
         <v>17.73</v>
       </c>
       <c r="I158">
-        <v>8.4600000000000009</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="J158">
         <v>12.99</v>
@@ -13783,16 +13764,16 @@
         <v>14.59</v>
       </c>
       <c r="Y158">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="Z158">
         <v>2.57</v>
       </c>
       <c r="AA158">
-        <v>8.86</v>
-      </c>
-    </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -13851,7 +13832,7 @@
         <v>10.51</v>
       </c>
       <c r="T159">
-        <v>16.239999999999998</v>
+        <v>16.24</v>
       </c>
       <c r="U159">
         <v>3.96</v>
@@ -13866,7 +13847,7 @@
         <v>11.8</v>
       </c>
       <c r="Y159">
-        <v>17.559999999999999</v>
+        <v>17.56</v>
       </c>
       <c r="Z159">
         <v>3.54</v>
@@ -13875,7 +13856,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -13901,7 +13882,7 @@
         <v>21.53</v>
       </c>
       <c r="I160">
-        <v>9.5500000000000007</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J160">
         <v>15.56</v>
@@ -13946,10 +13927,10 @@
         <v>23.02</v>
       </c>
       <c r="X160">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="Y160">
-        <v>16.809999999999999</v>
+        <v>16.81</v>
       </c>
       <c r="Z160">
         <v>2.72</v>
@@ -13958,7 +13939,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -13969,7 +13950,7 @@
         <v>12.3</v>
       </c>
       <c r="D161">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E161">
         <v>15.1</v>
@@ -13999,7 +13980,7 @@
         <v>21.97</v>
       </c>
       <c r="N161">
-        <v>9.6199999999999992</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="O161">
         <v>15.97</v>
@@ -14041,7 +14022,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -14070,7 +14051,7 @@
         <v>11.13</v>
       </c>
       <c r="J162">
-        <v>17.329999999999998</v>
+        <v>17.33</v>
       </c>
       <c r="K162">
         <v>2.27</v>
@@ -14088,7 +14069,7 @@
         <v>15.41</v>
       </c>
       <c r="P162">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="Q162">
         <v>2.06</v>
@@ -14115,16 +14096,16 @@
         <v>11.1</v>
       </c>
       <c r="Y162">
-        <v>17.170000000000002</v>
+        <v>17.17</v>
       </c>
       <c r="Z162">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="AA162">
         <v>1.66</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -14159,7 +14140,7 @@
         <v>3.88</v>
       </c>
       <c r="L163">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="M163">
         <v>23.25</v>
@@ -14168,7 +14149,7 @@
         <v>11.1</v>
       </c>
       <c r="O163">
-        <v>17.690000000000001</v>
+        <v>17.69</v>
       </c>
       <c r="P163">
         <v>3.46</v>
@@ -14201,13 +14182,13 @@
         <v>18.64</v>
       </c>
       <c r="Z163">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="AA163">
         <v>0.23</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -14215,7 +14196,7 @@
         <v>85</v>
       </c>
       <c r="C164">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -14242,7 +14223,7 @@
         <v>2.95</v>
       </c>
       <c r="L164">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="M164">
         <v>23.21</v>
@@ -14290,7 +14271,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -14316,7 +14297,7 @@
         <v>21.4</v>
       </c>
       <c r="I165">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="J165">
         <v>15.59</v>
@@ -14346,7 +14327,7 @@
         <v>20.69</v>
       </c>
       <c r="S165">
-        <v>8.5500000000000007</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="T165">
         <v>15.14</v>
@@ -14370,10 +14351,10 @@
         <v>3.13</v>
       </c>
       <c r="AA165">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -14399,7 +14380,7 @@
         <v>17.73</v>
       </c>
       <c r="I166">
-        <v>8.4600000000000009</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="J166">
         <v>12.99</v>
@@ -14447,16 +14428,16 @@
         <v>14.59</v>
       </c>
       <c r="Y166">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="Z166">
         <v>2.57</v>
       </c>
       <c r="AA166">
-        <v>8.86</v>
-      </c>
-    </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -14482,7 +14463,7 @@
         <v>28.9</v>
       </c>
       <c r="I167">
-        <v>16.190000000000001</v>
+        <v>16.19</v>
       </c>
       <c r="J167">
         <v>22.77</v>
@@ -14536,10 +14517,10 @@
         <v>5.25</v>
       </c>
       <c r="AA167">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -14583,7 +14564,7 @@
         <v>10.81</v>
       </c>
       <c r="O168">
-        <v>17.190000000000001</v>
+        <v>17.19</v>
       </c>
       <c r="P168">
         <v>1.84</v>
@@ -14598,7 +14579,7 @@
         <v>10.93</v>
       </c>
       <c r="T168">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="U168">
         <v>1.95</v>
@@ -14622,7 +14603,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -14639,7 +14620,7 @@
         <v>19.7</v>
       </c>
       <c r="F169">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="G169" t="s">
         <v>94</v>
@@ -14699,13 +14680,13 @@
         <v>22.01</v>
       </c>
       <c r="Z169">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="AA169">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -14722,7 +14703,7 @@
         <v>18.5</v>
       </c>
       <c r="F170">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="G170" t="s">
         <v>94</v>
@@ -14779,7 +14760,7 @@
         <v>14.8</v>
       </c>
       <c r="Y170">
-        <v>19.309999999999999</v>
+        <v>19.31</v>
       </c>
       <c r="Z170">
         <v>2.75</v>
@@ -14788,7 +14769,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -14796,7 +14777,7 @@
         <v>81</v>
       </c>
       <c r="C171">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="D171">
         <v>10</v>
@@ -14847,7 +14828,7 @@
         <v>11.89</v>
       </c>
       <c r="T171">
-        <v>17.329999999999998</v>
+        <v>17.33</v>
       </c>
       <c r="U171">
         <v>2.67</v>
@@ -14859,19 +14840,19 @@
         <v>21.6</v>
       </c>
       <c r="X171">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="Y171">
-        <v>16.309999999999999</v>
+        <v>16.31</v>
       </c>
       <c r="Z171">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="AA171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -14894,13 +14875,13 @@
         <v>94</v>
       </c>
       <c r="H172">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="I172">
         <v>15.65</v>
       </c>
       <c r="J172">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="K172">
         <v>1</v>
@@ -14927,7 +14908,7 @@
         <v>24.55</v>
       </c>
       <c r="S172">
-        <v>16.149999999999999</v>
+        <v>16.15</v>
       </c>
       <c r="T172">
         <v>21.21</v>
@@ -14936,7 +14917,7 @@
         <v>2.93</v>
       </c>
       <c r="V172">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="W172">
         <v>24.86</v>
@@ -14954,7 +14935,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -14968,7 +14949,7 @@
         <v>6.4</v>
       </c>
       <c r="E173">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F173">
         <v>6.3</v>
@@ -14980,7 +14961,7 @@
         <v>25.72</v>
       </c>
       <c r="I173">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="J173">
         <v>23.12</v>
@@ -15037,7 +15018,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -15066,7 +15047,7 @@
         <v>14.44</v>
       </c>
       <c r="J174">
-        <v>20.149999999999999</v>
+        <v>20.15</v>
       </c>
       <c r="K174">
         <v>3.95</v>
@@ -15084,7 +15065,7 @@
         <v>20.86</v>
       </c>
       <c r="P174">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="Q174">
         <v>0.06</v>
@@ -15096,10 +15077,10 @@
         <v>14.09</v>
       </c>
       <c r="T174">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="U174">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="V174">
         <v>0.36</v>
@@ -15120,7 +15101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -15161,7 +15142,7 @@
         <v>21.97</v>
       </c>
       <c r="N175">
-        <v>9.6199999999999992</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="O175">
         <v>15.97</v>
@@ -15203,7 +15184,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -15214,7 +15195,7 @@
         <v>7.8</v>
       </c>
       <c r="D176">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="E176">
         <v>11.3</v>
@@ -15232,7 +15213,7 @@
         <v>11.13</v>
       </c>
       <c r="J176">
-        <v>17.329999999999998</v>
+        <v>17.33</v>
       </c>
       <c r="K176">
         <v>2.27</v>
@@ -15250,7 +15231,7 @@
         <v>15.41</v>
       </c>
       <c r="P176">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="Q176">
         <v>2.06</v>
@@ -15277,16 +15258,16 @@
         <v>11.1</v>
       </c>
       <c r="Y176">
-        <v>17.170000000000002</v>
+        <v>17.17</v>
       </c>
       <c r="Z176">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="AA176">
         <v>1.66</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -15330,19 +15311,19 @@
         <v>10.54</v>
       </c>
       <c r="O177">
-        <v>18.579999999999998</v>
+        <v>18.58</v>
       </c>
       <c r="P177">
         <v>3.37</v>
       </c>
       <c r="Q177">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="R177">
         <v>24.48</v>
       </c>
       <c r="S177">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="T177">
         <v>17.93</v>
@@ -15369,7 +15350,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -15431,7 +15412,7 @@
         <v>16.79</v>
       </c>
       <c r="U178">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="V178">
         <v>1.72</v>
@@ -15443,7 +15424,7 @@
         <v>11.83</v>
       </c>
       <c r="Y178">
-        <v>18.579999999999998</v>
+        <v>18.58</v>
       </c>
       <c r="Z178">
         <v>2.37</v>
@@ -15452,7 +15433,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -15460,10 +15441,10 @@
         <v>63</v>
       </c>
       <c r="C179">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D179">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -15487,7 +15468,7 @@
         <v>3.88</v>
       </c>
       <c r="L179">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="M179">
         <v>23.25</v>
@@ -15496,7 +15477,7 @@
         <v>11.1</v>
       </c>
       <c r="O179">
-        <v>17.690000000000001</v>
+        <v>17.69</v>
       </c>
       <c r="P179">
         <v>3.46</v>
@@ -15529,13 +15510,13 @@
         <v>18.64</v>
       </c>
       <c r="Z179">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="AA179">
         <v>0.23</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -15579,13 +15560,13 @@
         <v>9.59</v>
       </c>
       <c r="O180">
-        <v>18.940000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="P180">
         <v>3.86</v>
       </c>
       <c r="Q180">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="R180">
         <v>22.41</v>
@@ -15594,13 +15575,13 @@
         <v>10.92</v>
       </c>
       <c r="T180">
-        <v>16.760000000000002</v>
+        <v>16.76</v>
       </c>
       <c r="U180">
         <v>2.39</v>
       </c>
       <c r="V180">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W180">
         <v>22.72</v>
